--- a/document/数据库/数据/t_static_content.xlsx
+++ b/document/数据库/数据/t_static_content.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>薛静锋老师
 北京理工大学“复杂系统智能控制与决策”国家重点实验室（培育基地）
@@ -35,12 +31,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>实验室简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        2011年2月，科技部与工信部确定了我校申报的“复杂系统智能控制与决策”作为两部共建国家重点实验室（培育基地）的首个启动项目。2011年7月14日，全国政协副主席、科技部部长万钢，工业和信息化部部长苗圩、科技部副部长陈小娅、工业和信息化部副部长杨学山，以及科技部办公厅、调研室、发展计划司、科研条件与财务司、基础研究司,工信部办公厅、人事教育司、科技司等相关司局领导莅临北京理工大学，同北京理工大学校领导郭大成、胡海岩、侯光明、赵平、孙逢春、杨树兴、赵显利、李和章等一同出席了科技部与工业和信息化部共建国家重点实验室培育基地合作备忘录签字仪式，并视察北理工的科技工作。陈小娅副部长、杨学山副部长分别代表科技部和工信部在共建国家重点实验室培育基地合作备忘录上签字。
@@ -50,18 +58,14 @@
 　　2015年1月27日，在北京理工大学召开了复杂系统智能控制与决策国家重点实验室第一届学术委员会第二次会议暨学术研讨会。
 　　2016年1月17日，在北京理工大学召开了复杂系统智能控制与决策国家重点实验室第一届学术委员会第三次会议暨学术研讨会。
 　　2016年12月23日，在北京理工大学召开了复杂系统智能控制与决策国家重点实验室第一届学术委员会第四次会议暨学术研讨会。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +80,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,15 +143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -152,6 +161,19 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -164,12 +186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,43 +473,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="95.5546875" customWidth="1"/>
+    <col min="3" max="3" width="95.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
